--- a/examples/basic/兵种.xlsx
+++ b/examples/basic/兵种.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="98">
   <si>
     <t>士兵ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,6 +401,10 @@
   </si>
   <si>
     <t>GetRange函数包含的参数（列）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -732,7 +736,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -743,16 +747,16 @@
   <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="42.75" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="11.625" customWidth="1"/>
     <col min="9" max="9" width="19.875" bestFit="1" customWidth="1"/>
@@ -775,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
@@ -3563,7 +3567,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B33"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="Q2:T2">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
